--- a/Code review P1.xlsx
+++ b/Code review P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C499F767-A4CC-48FC-ACC0-CDC9F060E388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0CE3B3-A953-4534-B407-4B9B4F61D52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33DD1697-28D4-4D9B-8C35-F7FDAC9D6632}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">Code Review Checklist </t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t xml:space="preserve">Follows the Principle of Least Privilege </t>
+  </si>
+  <si>
+    <t>Applying Checklist</t>
+  </si>
+  <si>
+    <t>Needs to Be Adressed</t>
+  </si>
+  <si>
+    <t>Who is Fixing It</t>
+  </si>
+  <si>
+    <t>Result (need to fix or not?)</t>
   </si>
 </sst>
 </file>
@@ -114,15 +126,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -284,56 +302,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,321 +743,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C4A16D-C3B9-4397-9326-6D5D18C0F248}">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="O7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
+  <mergeCells count="95">
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="B16:F16"/>
@@ -972,6 +1264,12 @@
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G12:K12"/>
@@ -982,19 +1280,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
